--- a/docu/Tabellenmodell.xlsx
+++ b/docu/Tabellenmodell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bswar\Desktop\Praxisprojekt\IT-Projekt\docu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9973AE83-2979-43FA-9B89-FE7AACFB9F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A241EC6-D927-4E7D-A8FF-CEFF544386B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FA09B4BF-A576-4898-A970-05A9AE821715}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
   <si>
     <t>table</t>
   </si>
@@ -110,9 +110,6 @@
     <t>trainingDate</t>
   </si>
   <si>
-    <t>trainingTime</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>enum</t>
   </si>
   <si>
-    <t>typeOfTraining('Kurs', 'Einzeltraining')</t>
-  </si>
-  <si>
     <t>memberId</t>
   </si>
   <si>
@@ -146,12 +140,6 @@
     <t>endTime</t>
   </si>
   <si>
-    <t>AreaTrainingEntryTimeslot</t>
-  </si>
-  <si>
-    <t>trainingEntryId</t>
-  </si>
-  <si>
     <t>timeslotId</t>
   </si>
   <si>
@@ -168,6 +156,51 @@
   </si>
   <si>
     <t>Timeslot</t>
+  </si>
+  <si>
+    <t>typeOfTraining('Kurs', 'Training')</t>
+  </si>
+  <si>
+    <t>changingRoom</t>
+  </si>
+  <si>
+    <t>changingRoomBeforeStartTime</t>
+  </si>
+  <si>
+    <t>changingRoomBeforeEndTime</t>
+  </si>
+  <si>
+    <t>changingRoomAfterStartTime</t>
+  </si>
+  <si>
+    <t>changingRoomAfterEndTime</t>
+  </si>
+  <si>
+    <t>cardioStartTime</t>
+  </si>
+  <si>
+    <t>cardioEndTime</t>
+  </si>
+  <si>
+    <t>areaTimeslotId</t>
+  </si>
+  <si>
+    <t>FK with reference to AreaTimeslot (id)</t>
+  </si>
+  <si>
+    <t>AreaTimeslot</t>
+  </si>
+  <si>
+    <t>weekday</t>
+  </si>
+  <si>
+    <t>courseId</t>
+  </si>
+  <si>
+    <t>FK with reference to Course (id)</t>
+  </si>
+  <si>
+    <t>Course</t>
   </si>
 </sst>
 </file>
@@ -554,16 +587,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755BEF83-3B71-4C8D-98A8-9DB8584FDA3A}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
@@ -664,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
@@ -774,93 +807,93 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45</v>
+      </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3">
-        <v>80</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
@@ -870,10 +903,10 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
@@ -883,63 +916,67 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -953,7 +990,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>19</v>
@@ -968,31 +1005,29 @@
       <c r="F25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D26" s="3">
+        <v>80</v>
+      </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -1001,33 +1036,225 @@
       <c r="E27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>45</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
